--- a/KHMER_LETTER.xlsx
+++ b/KHMER_LETTER.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User_Profile2\Desktop\IOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\jee\sharedoc\khmer_restapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="519">
   <si>
     <t>ក</t>
   </si>
@@ -1580,14 +1580,17 @@
   </si>
   <si>
     <t xml:space="preserve">0xE1 0x9E 0xA4 </t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-12000425]0"/>
+    <numFmt numFmtId="164" formatCode="[$-12000425]0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1673,9 +1676,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1688,11 +1688,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2661,12 +2664,12 @@
       <c r="B30" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="G30" t="s">
         <v>206</v>
       </c>
@@ -2678,12 +2681,12 @@
       <c r="B31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="G31" t="s">
         <v>207</v>
       </c>
@@ -2797,7 +2800,7 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,1730 +2809,1733 @@
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29" style="12" customWidth="1"/>
+    <col min="5" max="5" width="29" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>217</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>220</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>226</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>228</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>230</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>232</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>238</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>242</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>244</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>246</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>248</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>250</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>252</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>254</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>256</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>258</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>260</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>262</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="D24" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>264</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>266</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>268</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>270</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="D28" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>272</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="D29" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>274</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>276</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="D31" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>278</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" s="12" t="s">
+      <c r="D32" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>280</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E33" s="12" t="s">
+      <c r="D33" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>282</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="12" t="s">
+      <c r="D34" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>284</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>286</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36" s="12" t="s">
+      <c r="D36" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>288</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="D37" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>291</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="D38" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>294</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>219</v>
+      <c r="D39" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>297</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>300</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>303</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>306</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>309</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>312</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>315</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>318</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>321</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>327</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>330</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>333</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>336</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>339</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>342</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>345</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>348</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>351</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>354</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>357</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>360</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>363</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>366</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>369</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>372</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>375</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>378</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>381</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>384</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>387</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>390</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>393</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>396</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>399</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>402</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>405</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>408</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>411</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
         <v>414</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>417</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="9" t="s">
         <v>420</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>423</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="9" t="s">
         <v>426</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>429</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>432</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>435</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>438</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="9" t="s">
         <v>441</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>444</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>447</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="9" t="s">
         <v>450</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>453</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="9" t="s">
         <v>456</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="9" t="s">
         <v>459</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="9" t="s">
         <v>462</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>465</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="10">
         <v>0</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="9" t="s">
         <v>467</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="10">
         <v>1</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>469</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="10">
         <v>2</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="9" t="s">
         <v>471</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="10">
         <v>3</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="9" t="s">
         <v>473</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="10">
         <v>4</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="9" t="s">
         <v>475</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C101" s="10">
         <v>5</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="9" t="s">
         <v>477</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="10">
         <v>6</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="9" t="s">
         <v>479</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="10">
         <v>7</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="9" t="s">
         <v>481</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="10">
         <v>8</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>483</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C105" s="10">
         <v>9</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
         <v>485</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>488</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="9" t="s">
         <v>491</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="9" t="s">
         <v>494</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="9" t="s">
         <v>497</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="9" t="s">
         <v>500</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="9" t="s">
         <v>503</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="9" t="s">
         <v>506</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="9" t="s">
         <v>509</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="9" t="s">
         <v>512</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="9" t="s">
         <v>219</v>
       </c>
     </row>

--- a/KHMER_LETTER.xlsx
+++ b/KHMER_LETTER.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="709">
   <si>
     <t>ក</t>
   </si>
@@ -1582,7 +1582,577 @@
     <t xml:space="preserve">0xE1 0x9E 0xA4 </t>
   </si>
   <si>
-    <t>test</t>
+    <t>0xE1 0x9E 0xA5</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xA6</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xA7</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xA9</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xA8</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xAA</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xAB</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xAC</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xAD</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xAE</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xAF</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xB0</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xB1</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xB2</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xB3</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xB4</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xB5</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xB6</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xB7</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xB8</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xB9</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xBA</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xBF</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xBB</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xBC</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xBD</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xBE</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xC0</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xC1</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xC2</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xC3</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xC4</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xC5</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xC6</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xC7</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xC8</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xC9</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xCA</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xCB</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xCC</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xCD</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xCE</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xCF</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xD0</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xD1</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xD2</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xD3</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xD4</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xD5</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xD6</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xD7</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xD8</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xD9</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xDA</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xDB</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xDC</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xDD</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xE0</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xE1</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xE2</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xE3</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xE4</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xE5</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xE6</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xE7</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xE8</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xE9</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xF0</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xF1</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xF2</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xF3</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xF4</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xF5</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xF6</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xF7</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xF8</t>
+  </si>
+  <si>
+    <t>0xE1 0x9E 0xF9</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%81</t>
+  </si>
+  <si>
+    <t>0%E10%9E %80</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%82</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%83</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%84</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%85</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%86</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%87</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%88</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%89</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%8A</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%8B</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%8C</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%8D</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%8E</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%8F</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%90</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%91</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%92</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%93</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%94</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%95</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%96</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%97</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%98</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%99</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%9A</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%9B</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%9C</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%9D</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%9E</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%9F</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%A0</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%A1</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%A2</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%A3</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%A4</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%A5</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%A6</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%A7</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%A8</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%A9</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%AA</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%AB</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%AC</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%AD</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%AE</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%AF</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%B0</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%B1</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%B2</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%B3</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%B4</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%B5</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%B6</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%B7</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%B8</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%B9</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%BA</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%BB</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%BC</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%BD</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%BE</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%BF</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%C0</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%C1</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%C2</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%C3</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%C4</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%C5</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%C6</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%C7</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%C8</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%C9</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%CA</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%CB</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%CC</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%CD</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%CE</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%CF</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%D0</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%D1</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%D2</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%D3</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%D4</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%D5</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%D6</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%D7</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%D8</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%D9</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%DA</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%DB</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%DC</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%DD</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%E0</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%E1</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%E2</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%E3</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%E4</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%E5</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%E6</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%E7</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%E8</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%E9</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%F0</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%F1</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%F2</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%F3</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%F4</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%F5</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%F6</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%F7</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%F8</t>
+  </si>
+  <si>
+    <t>0%E10%9E0%F9</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +2202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1642,6 +2212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE5E5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,7 +2235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1697,6 +2273,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2797,10 +3386,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,9 +3399,10 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="29" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>213</v>
       </c>
@@ -2829,7 +3419,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>217</v>
       </c>
@@ -2845,8 +3435,11 @@
       <c r="E2" s="11" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>220</v>
       </c>
@@ -2862,8 +3455,11 @@
       <c r="E3" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>222</v>
       </c>
@@ -2879,8 +3475,11 @@
       <c r="E4" s="11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>224</v>
       </c>
@@ -2896,8 +3495,11 @@
       <c r="E5" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>226</v>
       </c>
@@ -2913,8 +3515,11 @@
       <c r="E6" s="11" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>228</v>
       </c>
@@ -2930,8 +3535,11 @@
       <c r="E7" s="11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>230</v>
       </c>
@@ -2947,8 +3555,11 @@
       <c r="E8" s="11" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>232</v>
       </c>
@@ -2964,8 +3575,11 @@
       <c r="E9" s="11" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>234</v>
       </c>
@@ -2981,8 +3595,11 @@
       <c r="E10" s="11" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>236</v>
       </c>
@@ -2998,8 +3615,11 @@
       <c r="E11" s="11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>238</v>
       </c>
@@ -3015,8 +3635,11 @@
       <c r="E12" s="11" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>240</v>
       </c>
@@ -3032,8 +3655,11 @@
       <c r="E13" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>242</v>
       </c>
@@ -3049,8 +3675,11 @@
       <c r="E14" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>244</v>
       </c>
@@ -3066,8 +3695,11 @@
       <c r="E15" s="11" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>246</v>
       </c>
@@ -3083,8 +3715,11 @@
       <c r="E16" s="11" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>248</v>
       </c>
@@ -3100,8 +3735,11 @@
       <c r="E17" s="11" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>250</v>
       </c>
@@ -3117,8 +3755,11 @@
       <c r="E18" s="11" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>252</v>
       </c>
@@ -3134,8 +3775,11 @@
       <c r="E19" s="11" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>254</v>
       </c>
@@ -3151,8 +3795,11 @@
       <c r="E20" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>256</v>
       </c>
@@ -3168,8 +3815,11 @@
       <c r="E21" s="11" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>258</v>
       </c>
@@ -3185,8 +3835,11 @@
       <c r="E22" s="11" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>260</v>
       </c>
@@ -3202,8 +3855,11 @@
       <c r="E23" s="11" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>262</v>
       </c>
@@ -3219,8 +3875,11 @@
       <c r="E24" s="11" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>264</v>
       </c>
@@ -3236,8 +3895,11 @@
       <c r="E25" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>266</v>
       </c>
@@ -3253,8 +3915,11 @@
       <c r="E26" s="11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>268</v>
       </c>
@@ -3270,8 +3935,11 @@
       <c r="E27" s="11" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>270</v>
       </c>
@@ -3287,8 +3955,11 @@
       <c r="E28" s="11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>272</v>
       </c>
@@ -3304,8 +3975,11 @@
       <c r="E29" s="11" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>274</v>
       </c>
@@ -3321,8 +3995,11 @@
       <c r="E30" s="11" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>276</v>
       </c>
@@ -3338,8 +4015,11 @@
       <c r="E31" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>278</v>
       </c>
@@ -3355,8 +4035,11 @@
       <c r="E32" s="11" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>280</v>
       </c>
@@ -3372,8 +4055,11 @@
       <c r="E33" s="11" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>282</v>
       </c>
@@ -3389,8 +4075,11 @@
       <c r="E34" s="11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>284</v>
       </c>
@@ -3406,8 +4095,11 @@
       <c r="E35" s="11" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>286</v>
       </c>
@@ -3423,8 +4115,11 @@
       <c r="E36" s="11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>288</v>
       </c>
@@ -3440,8 +4135,11 @@
       <c r="E37" s="11" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>291</v>
       </c>
@@ -3457,8 +4155,11 @@
       <c r="E38" s="11" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>294</v>
       </c>
@@ -3474,8 +4175,11 @@
       <c r="E39" s="11" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>297</v>
       </c>
@@ -3488,8 +4192,14 @@
       <c r="D40" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E40" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="F40" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>300</v>
       </c>
@@ -3502,8 +4212,14 @@
       <c r="D41" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E41" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F41" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>303</v>
       </c>
@@ -3516,8 +4232,14 @@
       <c r="D42" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E42" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F42" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>306</v>
       </c>
@@ -3530,8 +4252,14 @@
       <c r="D43" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E43" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F43" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>309</v>
       </c>
@@ -3544,8 +4272,14 @@
       <c r="D44" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E44" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F44" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>312</v>
       </c>
@@ -3558,22 +4292,34 @@
       <c r="D45" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="E45" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="F45" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D46" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>318</v>
       </c>
@@ -3586,8 +4332,14 @@
       <c r="D47" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E47" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="F47" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>321</v>
       </c>
@@ -3600,8 +4352,14 @@
       <c r="D48" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E48" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="F48" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>324</v>
       </c>
@@ -3614,8 +4372,14 @@
       <c r="D49" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E49" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="F49" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>327</v>
       </c>
@@ -3628,8 +4392,14 @@
       <c r="D50" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E50" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="F50" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>330</v>
       </c>
@@ -3642,8 +4412,14 @@
       <c r="D51" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E51" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="F51" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>333</v>
       </c>
@@ -3656,8 +4432,14 @@
       <c r="D52" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E52" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="F52" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>336</v>
       </c>
@@ -3670,8 +4452,14 @@
       <c r="D53" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E53" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="F53" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>339</v>
       </c>
@@ -3684,8 +4472,14 @@
       <c r="D54" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E54" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="F54" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>342</v>
       </c>
@@ -3698,8 +4492,14 @@
       <c r="D55" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E55" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F55" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>345</v>
       </c>
@@ -3712,8 +4512,14 @@
       <c r="D56" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E56" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="F56" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>348</v>
       </c>
@@ -3726,8 +4532,14 @@
       <c r="D57" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E57" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="F57" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>351</v>
       </c>
@@ -3740,8 +4552,14 @@
       <c r="D58" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E58" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="F58" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>354</v>
       </c>
@@ -3754,8 +4572,14 @@
       <c r="D59" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E59" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F59" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>357</v>
       </c>
@@ -3768,8 +4592,14 @@
       <c r="D60" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E60" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="F60" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>360</v>
       </c>
@@ -3782,8 +4612,14 @@
       <c r="D61" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E61" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="F61" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>363</v>
       </c>
@@ -3796,8 +4632,14 @@
       <c r="D62" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E62" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="F62" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>366</v>
       </c>
@@ -3810,8 +4652,14 @@
       <c r="D63" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E63" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="F63" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>369</v>
       </c>
@@ -3824,8 +4672,14 @@
       <c r="D64" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E64" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F64" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>372</v>
       </c>
@@ -3838,8 +4692,14 @@
       <c r="D65" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E65" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="F65" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>375</v>
       </c>
@@ -3852,8 +4712,14 @@
       <c r="D66" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E66" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="F66" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>378</v>
       </c>
@@ -3866,8 +4732,14 @@
       <c r="D67" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E67" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="F67" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>381</v>
       </c>
@@ -3880,8 +4752,14 @@
       <c r="D68" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E68" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="F68" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>384</v>
       </c>
@@ -3894,8 +4772,14 @@
       <c r="D69" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E69" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="F69" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>387</v>
       </c>
@@ -3908,8 +4792,14 @@
       <c r="D70" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E70" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="F70" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>390</v>
       </c>
@@ -3922,8 +4812,14 @@
       <c r="D71" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E71" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="F71" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>393</v>
       </c>
@@ -3936,8 +4832,14 @@
       <c r="D72" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E72" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="F72" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>396</v>
       </c>
@@ -3950,8 +4852,14 @@
       <c r="D73" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E73" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="F73" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>399</v>
       </c>
@@ -3964,8 +4872,14 @@
       <c r="D74" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E74" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="F74" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>402</v>
       </c>
@@ -3978,8 +4892,14 @@
       <c r="D75" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E75" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="F75" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>405</v>
       </c>
@@ -3992,8 +4912,14 @@
       <c r="D76" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E76" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="F76" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>408</v>
       </c>
@@ -4006,8 +4932,14 @@
       <c r="D77" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E77" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="F77" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>411</v>
       </c>
@@ -4020,8 +4952,14 @@
       <c r="D78" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E78" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="F78" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>414</v>
       </c>
@@ -4034,8 +4972,14 @@
       <c r="D79" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E79" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="F79" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>417</v>
       </c>
@@ -4048,8 +4992,14 @@
       <c r="D80" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E80" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="F80" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>420</v>
       </c>
@@ -4062,8 +5012,14 @@
       <c r="D81" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E81" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="F81" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>423</v>
       </c>
@@ -4076,8 +5032,14 @@
       <c r="D82" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E82" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="F82" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>426</v>
       </c>
@@ -4090,8 +5052,14 @@
       <c r="D83" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E83" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="F83" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>429</v>
       </c>
@@ -4104,8 +5072,14 @@
       <c r="D84" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E84" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F84" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>432</v>
       </c>
@@ -4118,8 +5092,14 @@
       <c r="D85" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E85" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F85" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>435</v>
       </c>
@@ -4132,8 +5112,14 @@
       <c r="D86" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E86" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="F86" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>438</v>
       </c>
@@ -4146,8 +5132,14 @@
       <c r="D87" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E87" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="F87" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>441</v>
       </c>
@@ -4160,8 +5152,14 @@
       <c r="D88" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E88" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="F88" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>444</v>
       </c>
@@ -4174,22 +5172,34 @@
       <c r="D89" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="E89" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="F89" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D90" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>450</v>
       </c>
@@ -4202,8 +5212,14 @@
       <c r="D91" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E91" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F91" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>453</v>
       </c>
@@ -4216,8 +5232,14 @@
       <c r="D92" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E92" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="F92" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>456</v>
       </c>
@@ -4230,8 +5252,14 @@
       <c r="D93" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E93" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="F93" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>459</v>
       </c>
@@ -4244,8 +5272,14 @@
       <c r="D94" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E94" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="F94" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>462</v>
       </c>
@@ -4258,8 +5292,14 @@
       <c r="D95" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="F95" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>465</v>
       </c>
@@ -4272,8 +5312,14 @@
       <c r="D96" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F96" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>467</v>
       </c>
@@ -4286,8 +5332,14 @@
       <c r="D97" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="F97" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>469</v>
       </c>
@@ -4300,8 +5352,14 @@
       <c r="D98" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E98" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F98" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>471</v>
       </c>
@@ -4314,8 +5372,14 @@
       <c r="D99" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E99" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="F99" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>473</v>
       </c>
@@ -4328,8 +5392,14 @@
       <c r="D100" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F100" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>475</v>
       </c>
@@ -4342,8 +5412,14 @@
       <c r="D101" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F101" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>477</v>
       </c>
@@ -4356,8 +5432,14 @@
       <c r="D102" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E102" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="F102" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>479</v>
       </c>
@@ -4370,8 +5452,14 @@
       <c r="D103" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E103" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="F103" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>481</v>
       </c>
@@ -4384,8 +5472,14 @@
       <c r="D104" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="F104" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>483</v>
       </c>
@@ -4398,8 +5492,14 @@
       <c r="D105" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E105" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="F105" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>485</v>
       </c>
@@ -4412,8 +5512,14 @@
       <c r="D106" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E106" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="F106" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>488</v>
       </c>
@@ -4426,8 +5532,14 @@
       <c r="D107" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E107" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="F107" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>491</v>
       </c>
@@ -4440,8 +5552,14 @@
       <c r="D108" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E108" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="F108" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>494</v>
       </c>
@@ -4454,8 +5572,14 @@
       <c r="D109" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E109" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F109" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>497</v>
       </c>
@@ -4468,8 +5592,14 @@
       <c r="D110" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E110" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="F110" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>500</v>
       </c>
@@ -4482,8 +5612,14 @@
       <c r="D111" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E111" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F111" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>503</v>
       </c>
@@ -4496,8 +5632,14 @@
       <c r="D112" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E112" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F112" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>506</v>
       </c>
@@ -4510,8 +5652,14 @@
       <c r="D113" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E113" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F113" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>509</v>
       </c>
@@ -4524,8 +5672,14 @@
       <c r="D114" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E114" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="F114" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>512</v>
       </c>
@@ -4537,6 +5691,12 @@
       </c>
       <c r="D115" s="9" t="s">
         <v>219</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="F115" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -4771,6 +5931,7 @@
     <hyperlink ref="D115" r:id="rId228" display="http://www.fileformat.info/info/unicode/font/code2000/index.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId229"/>
 </worksheet>
 </file>
 
